--- a/utp_auth_columns.xlsx
+++ b/utp_auth_columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/FINANCIAL-SYSTEMS/dark-trader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD39C1F-11D8-5746-AED5-2E97FF1D083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC7C24C-910D-E94C-957F-D7D8EDE4FA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{C15102D8-A616-0541-9E54-8577E9F26623}"/>
   </bookViews>
@@ -110,13 +110,13 @@
     <t>utp_auth_required</t>
   </si>
   <si>
-    <t>humbled_trader_TARGET</t>
-  </si>
-  <si>
-    <t>iex_real-time_alternative</t>
-  </si>
-  <si>
-    <t>TRANSFORMED_current</t>
+    <t>iex_real-time_alternatives</t>
+  </si>
+  <si>
+    <t>humbled_trader_TARGETs</t>
+  </si>
+  <si>
+    <t>u_screener_df_columns_ACTIVE</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,7 +479,7 @@
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,10 +487,10 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
